--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Фразы на выполненные задания.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Фразы на выполненные задания.xlsx
@@ -298,16 +298,6 @@
 [CN]The [string0] was put in storage.</t>
   </si>
   <si>
-    <t>[CN]Команда [hero] получает
-[CN]предмет [string0].[C]
-[CN][string0] убран в хранилище.</t>
-  </si>
-  <si>
-    <t>[CN]Ëïíàîäà [hero] ðïìôœàåó
-[CN]ðñåäíåó [string0].[C]
-[CN][string0] ôáñàî â öñàîéìéþå.</t>
-  </si>
-  <si>
     <t>[CN]The [string0] was obtained.</t>
   </si>
   <si>
@@ -321,14 +311,6 @@
 [CN]The [string0] was put in storage.</t>
   </si>
   <si>
-    <t>[CN]Предмет [string:2] выброшен.
-[CN][string0] убран в хранилище.</t>
-  </si>
-  <si>
-    <t>[CN]Ðñåäíåó [string:2] âúáñïšåî.
-[CN][string0] ôáñàî â öñàîéìéþå.</t>
-  </si>
-  <si>
     <t>[CN]The [string0] was thrown away.
 [CN]The [string:2] went in the Treasure Bag.</t>
   </si>
@@ -343,14 +325,6 @@
   <si>
     <t>[CN]Storage was sorted.
 [CN]Sent the [string0] to storage.</t>
-  </si>
-  <si>
-    <t>[CN]Хранилище отсортировано.
-[CN][string0] убран в хранилище.</t>
-  </si>
-  <si>
-    <t>[CN]Öñàîéìéþå ïóòïñóéñïâàîï.
-[CN][string0] ôáñàî â öñàîéìéþå.</t>
   </si>
   <si>
     <t>Äà</t>
@@ -911,6 +885,38 @@
     <t>[CN]Èà ðñïäâéçåîéå ðï ñàîãô, ëïíàîäà
 [CN]ðïìôœàåó [item:0]![C]
 [CN][item:0] ôáñàî â öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t>[CN]Ваша Команда получает
+[CN]предмет [string0].[C]
+[CN]Предмет [string0]
+[CN]убран в хранилище.</t>
+  </si>
+  <si>
+    <t>[CN]Âàšà Ëïíàîäà ðïìôœàåó
+[CN]ðñåäíåó [string0].[C]
+[CN]Ðñåäíåó [string0]
+[CN]ôáñàî â öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t>[CN]Предмет [string:2] выброшен.
+[CN]Предмет [string0]
+[CN]убран в хранилище.</t>
+  </si>
+  <si>
+    <t>[CN]Ðñåäíåó [string:2] âúáñïšåî.
+[CN]Ðñåäíåó [string0]
+[CN]ôáñàî â öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t>[CN]Хранилище отсортировано.
+[CN]Предмет [string0]
+[CN]убран в хранилище.</t>
+  </si>
+  <si>
+    <t>[CN]Öñàîéìéþå ïóòïñóéñïâàîï.
+[CN]Ðñåäíåó [string0]
+[CN]ôáñàî â öñàîéìéþå.</t>
   </si>
 </sst>
 </file>
@@ -1367,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1719,7 +1725,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6">
         <f t="shared" si="0"/>
@@ -1729,10 +1735,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>64</v>
+        <v>197</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1742,29 +1748,29 @@
         <v>628</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>629</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1774,29 +1780,29 @@
         <v>630</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>631</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1806,13 +1812,13 @@
         <v>632</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1822,13 +1828,13 @@
         <v>633</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1838,13 +1844,13 @@
         <v>634</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1854,13 +1860,13 @@
         <v>635</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1870,13 +1876,13 @@
         <v>636</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1886,13 +1892,13 @@
         <v>637</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1902,13 +1908,13 @@
         <v>638</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1918,13 +1924,13 @@
         <v>639</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1934,13 +1940,13 @@
         <v>640</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -1950,13 +1956,13 @@
         <v>641</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1966,13 +1972,13 @@
         <v>642</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1982,13 +1988,13 @@
         <v>643</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -1998,13 +2004,13 @@
         <v>644</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2014,13 +2020,13 @@
         <v>645</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -2030,13 +2036,13 @@
         <v>646</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -2046,13 +2052,13 @@
         <v>647</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2062,13 +2068,13 @@
         <v>648</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2078,13 +2084,13 @@
         <v>649</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2094,13 +2100,13 @@
         <v>650</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2110,13 +2116,13 @@
         <v>651</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2126,13 +2132,13 @@
         <v>652</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2142,13 +2148,13 @@
         <v>653</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2158,13 +2164,13 @@
         <v>654</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2174,13 +2180,13 @@
         <v>655</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2190,13 +2196,13 @@
         <v>656</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2206,13 +2212,13 @@
         <v>657</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2222,13 +2228,13 @@
         <v>658</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>659</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2254,13 +2260,13 @@
         <v>660</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2270,13 +2276,13 @@
         <v>661</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2286,13 +2292,13 @@
         <v>662</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2302,13 +2308,13 @@
         <v>663</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2318,13 +2324,13 @@
         <v>664</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2334,13 +2340,13 @@
         <v>665</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2350,13 +2356,13 @@
         <v>666</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2366,13 +2372,13 @@
         <v>667</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="51" x14ac:dyDescent="0.3">
@@ -2382,13 +2388,13 @@
         <v>668</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2398,13 +2404,13 @@
         <v>669</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2414,13 +2420,13 @@
         <v>670</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2430,13 +2436,13 @@
         <v>671</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2446,13 +2452,13 @@
         <v>672</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -2462,13 +2468,13 @@
         <v>673</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -2478,13 +2484,13 @@
         <v>674</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30.6" x14ac:dyDescent="0.3">
@@ -2494,13 +2500,13 @@
         <v>675</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2510,13 +2516,13 @@
         <v>676</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Гильдия Виглитаффа/Фразы на выполненные задания.xlsx
+++ b/Texts/Город Сокровищ/Гильдия Виглитаффа/Фразы на выполненные задания.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="216">
   <si>
     <t>Раздел</t>
   </si>
@@ -917,6 +917,45 @@
     <t>[CN]Öñàîéìéþå ïóòïñóéñïâàîï.
 [CN]Ðñåäíåó [string0]
 [CN]ôáñàî â öñàîéìéþå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/G01P03A/request.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What?!? [K]You mean, there was a\nhidden room?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not only that, but you brought\nall the treasure back with you?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isn\'t that wonderful. ♪[K]\nBut you know what? I\'ll keep the treasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Just kidding. It\'s a reward. ♪[K]\nHow about you keep it? ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что??![K] Хотите сказать, вы нашли\nскрытую комнату?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Более того, вы сумели принести\nвсё сокровище?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это чудесно. ♪[K] Но, знаете что?\nЯ заберу его у вас.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Шутка. Это же награда. ♪[K]\nКак насчёт оставить её себе? ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï??![K] Öïóéóå òëàèàóû, âú îàšìé\nòëñúóôý ëïíîàóô?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Áïìåå óïãï, âú òôíåìé ðñéîåòóé\nâòæ òïëñïâéþå?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï œôäåòîï. ♪[K] Îï, èîàåóå œóï?\nŸ èàáåñô åãï ô âàò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...Šôóëà. Üóï çå îàãñàäà. ♪[K]\nËàë îàòœæó ïòóàâéóû åæ òåáå? ♪</t>
   </si>
 </sst>
 </file>
@@ -1371,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2525,6 +2564,65 @@
         <v>196</v>
       </c>
     </row>
+    <row r="72" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="4">
+        <v>120</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B73" s="4">
+        <v>123</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B74" s="4">
+        <v>127</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B75" s="4">
+        <v>131</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
